--- a/data/tick_label_test.xlsx
+++ b/data/tick_label_test.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63697C85-848E-4E7B-8950-7EF38422572C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090603CD-4453-4940-A578-994DCF928CBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="10390" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57490" yWindow="10390" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
-    <sheet name="line_text_1" sheetId="9" r:id="rId2"/>
-    <sheet name="tile_1" sheetId="4" r:id="rId3"/>
-    <sheet name="range_link_1" sheetId="6" r:id="rId4"/>
-    <sheet name="config_1" sheetId="2" r:id="rId5"/>
-    <sheet name="circle_1" sheetId="3" r:id="rId6"/>
-    <sheet name="circle_tick_1" sheetId="7" r:id="rId7"/>
-    <sheet name="all_colors" sheetId="8" r:id="rId8"/>
+    <sheet name="font_info_1" sheetId="10" r:id="rId2"/>
+    <sheet name="line_text_1" sheetId="9" r:id="rId3"/>
+    <sheet name="tile_1" sheetId="4" r:id="rId4"/>
+    <sheet name="range_link_1" sheetId="6" r:id="rId5"/>
+    <sheet name="config_1" sheetId="2" r:id="rId6"/>
+    <sheet name="circle_1" sheetId="3" r:id="rId7"/>
+    <sheet name="circle_tick_1" sheetId="7" r:id="rId8"/>
+    <sheet name="all_colors" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +438,34 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_web_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:/Windows/Fonts/msyhl.ttc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microsoft yahei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -835,6 +864,14 @@
       </c>
       <c r="B8" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -845,11 +882,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E540D42-D843-4C21-94FB-A243B9ECEE73}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00D15A-E69C-4C1F-85F5-8C743362EF46}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -994,7 +1080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C71219-A16A-46CA-A3EF-A28904E13611}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -1325,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EE92CD-4F45-4665-8ED1-B4A18F86433E}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1406,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1470,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1562,7 +1648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1677,7 +1763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>

--- a/data/tick_label_test.xlsx
+++ b/data/tick_label_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090603CD-4453-4940-A578-994DCF928CBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19291D0-798D-4C0F-8F1B-2BCA1513B86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="10390" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors,str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>from_pos_idx_begin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +187,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(all_colors, str)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,10 +319,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(255,255,255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,6 +450,17 @@
   </si>
   <si>
     <t>microsoft yahei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,15 +797,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -826,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -834,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -842,36 +837,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -889,39 +892,39 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -935,35 +938,35 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -975,7 +978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -998,30 +1001,30 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1030,30 +1033,30 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1062,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>0.5</v>
@@ -1077,6 +1080,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1085,72 +1089,72 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -1165,18 +1169,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -1191,18 +1195,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -1217,18 +1221,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -1243,18 +1247,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -1269,18 +1273,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -1295,18 +1299,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1321,18 +1325,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1347,18 +1351,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1373,18 +1377,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1399,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1416,32 +1420,32 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -1453,7 +1457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1476,10 +1480,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1500,12 +1504,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1535,18 +1539,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1561,12 +1565,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1606,10 +1610,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1618,9 +1622,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>800</v>
@@ -1632,7 +1636,7 @@
         <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1653,26 +1657,26 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -1684,38 +1688,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1727,18 +1731,18 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1750,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1768,42 +1772,42 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1815,9 +1819,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1829,9 +1833,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1843,9 +1847,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1857,9 +1861,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1871,9 +1875,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1885,9 +1889,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1899,9 +1903,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1913,9 +1917,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1927,9 +1931,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1941,9 +1945,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>

--- a/data/tick_label_test.xlsx
+++ b/data/tick_label_test.xlsx
@@ -3,20 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19291D0-798D-4C0F-8F1B-2BCA1513B86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8151621-C656-49EA-A95A-C690B2762662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
     <sheet name="font_info_1" sheetId="10" r:id="rId2"/>
-    <sheet name="line_text_1" sheetId="9" r:id="rId3"/>
-    <sheet name="tile_1" sheetId="4" r:id="rId4"/>
-    <sheet name="range_link_1" sheetId="6" r:id="rId5"/>
-    <sheet name="config_1" sheetId="2" r:id="rId6"/>
-    <sheet name="circle_1" sheetId="3" r:id="rId7"/>
-    <sheet name="circle_tick_1" sheetId="7" r:id="rId8"/>
-    <sheet name="all_colors" sheetId="8" r:id="rId9"/>
+    <sheet name="tile_1" sheetId="4" r:id="rId3"/>
+    <sheet name="config_1" sheetId="2" r:id="rId4"/>
+    <sheet name="circle_1" sheetId="3" r:id="rId5"/>
+    <sheet name="circle_tick_1" sheetId="7" r:id="rId6"/>
+    <sheet name="all_colors" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,34 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>link_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_pos_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_pos_idx_begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_pos_idx_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_pos_idx_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tick_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +149,6 @@
   </si>
   <si>
     <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,10 +269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,152 +277,110 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
+    <t>(255,255,255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_text_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_web_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:/Windows/Fonts/msyhl.ttc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microsoft yahei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(uint32, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
-  </si>
-  <si>
-    <t>line_text_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_text_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_pos_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yahei</t>
-  </si>
-  <si>
-    <t>c7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_text_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yahei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_info_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_file_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_web_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:/Windows/Fonts/msyhl.ttc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microsoft yahei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>all_colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colors</t>
+    <t>list(uint32, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -839,42 +759,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -896,13 +816,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -918,13 +838,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -934,162 +854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00D15A-E69C-4C1F-85F5-8C743362EF46}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C71219-A16A-46CA-A3EF-A28904E13611}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,62 +868,62 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -1169,18 +938,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -1195,18 +964,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -1221,18 +990,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -1247,18 +1016,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -1273,18 +1042,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -1299,18 +1068,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1325,18 +1094,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1351,18 +1120,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1377,18 +1146,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1403,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1415,88 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EE92CD-4F45-4665-8ED1-B4A18F86433E}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1539,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1547,10 +1235,217 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>850</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>79</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1561,234 +1456,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>800</v>
-      </c>
-      <c r="C4">
-        <v>850</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1796,18 +1484,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1821,7 +1509,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1835,7 +1523,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1849,7 +1537,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1863,7 +1551,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1877,7 +1565,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1891,7 +1579,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1905,7 +1593,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1919,7 +1607,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1933,7 +1621,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1947,7 +1635,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>

--- a/data/tick_label_test.xlsx
+++ b/data/tick_label_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8151621-C656-49EA-A95A-C690B2762662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23921BFF-CF97-4A12-A7CA-900A810B943D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
   </si>
   <si>
     <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,10 +273,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 0, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>line_text_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>font_info_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,9 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-  </si>
-  <si>
     <t>all_colors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,11 +357,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32, 3)</t>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["uint", 3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32, 3)</t>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int",3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[255,255,255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>any</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,12 +725,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -741,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -749,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -757,44 +762,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -812,20 +817,20 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -836,15 +841,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -858,72 +863,72 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -938,18 +943,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -964,18 +969,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -990,18 +995,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -1016,18 +1021,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -1042,18 +1047,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -1068,18 +1073,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1094,18 +1099,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1120,18 +1125,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1146,18 +1151,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1172,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1188,16 +1193,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1208,18 +1213,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1227,18 +1232,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1253,12 +1258,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1284,21 +1289,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1310,9 +1315,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>800</v>
@@ -1345,12 +1350,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1358,7 +1363,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -1376,7 +1381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1392,8 +1397,8 @@
       <c r="E2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
-        <v>95</v>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1402,12 +1407,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1419,18 +1424,18 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1442,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1459,13 +1464,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1479,23 +1484,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1507,9 +1512,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1521,9 +1526,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1535,9 +1540,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1549,9 +1554,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1563,9 +1568,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1577,9 +1582,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1591,9 +1596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1605,9 +1610,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1619,9 +1624,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1633,9 +1638,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>
